--- a/Variable.xlsx
+++ b/Variable.xlsx
@@ -28,37 +28,37 @@
     <t>bank_name</t>
   </si>
   <si>
-    <t>darius</t>
+    <t>doctest1</t>
   </si>
   <si>
     <t>darius chandra</t>
   </si>
   <si>
-    <t>foodpanda</t>
+    <t>company1</t>
   </si>
   <si>
     <t>BCA</t>
   </si>
   <si>
-    <t>kevin</t>
+    <t>doctest2</t>
   </si>
   <si>
     <t>kevin goldwin</t>
   </si>
   <si>
-    <t>SeeMyCV</t>
+    <t>company2</t>
   </si>
   <si>
     <t>BNI</t>
   </si>
   <si>
-    <t>jeremy</t>
+    <t>doctest3</t>
   </si>
   <si>
     <t>jeremy jordan</t>
   </si>
   <si>
-    <t>legalneeds</t>
+    <t>company3</t>
   </si>
   <si>
     <t>BRI</t>
@@ -117,7 +117,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
